--- a/NZSO2017/detailes2017.xlsx
+++ b/NZSO2017/detailes2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9276" tabRatio="999" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9276" tabRatio="999" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="competitors" sheetId="1" r:id="rId1"/>
@@ -1171,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B31" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
@@ -1200,7 +1200,7 @@
         <v>comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C2" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A2," ",""),"_","_")</f>
+        <f t="shared" ref="C2:C43" si="0">"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A2," ",""),"_","_")</f>
         <v>comptrAcereBongo_SalsaConCoco</v>
       </c>
       <c r="D2">
@@ -1223,7 +1223,7 @@
         <v>comptrAdvancedAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,</v>
       </c>
       <c r="C3" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A3," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrAdvancedAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil</v>
       </c>
       <c r="D3">
@@ -1246,7 +1246,7 @@
         <v>comptrAlanaMace_RainesSuavesitas,</v>
       </c>
       <c r="C4" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A4," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrAlanaMace_RainesSuavesitas</v>
       </c>
       <c r="D4">
@@ -1269,7 +1269,7 @@
         <v>comptrAlinaSolomkinaandCorwinRuegg_EDP,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C5" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A5," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrAlinaSolomkinaandCorwinRuegg_EDP</v>
       </c>
       <c r="D5">
@@ -1292,7 +1292,7 @@
         <v>comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C6" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A6," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrAndradaNeaguandAlbertoJuarez_PassionofExpression</v>
       </c>
       <c r="D6">
@@ -1302,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ref="F6:F57" si="0">"var " &amp; C6 &amp;" = new Competitor{Id = Guid.NewGuid(),EntityName = """&amp; A6 &amp;""",EntityNumber = " &amp; D7 &amp; ",Email =""" &amp; SUBSTITUTE(A6," ","") &amp; """,CompetitorType = " &amp; E6 &amp; ",Organisation = orgVivaDance,MobileNumber = ""021"",FirstName = """",LastName = """"};"</f>
+        <f t="shared" ref="F6:F57" si="1">"var " &amp; C6 &amp;" = new Competitor{Id = Guid.NewGuid(),EntityName = """&amp; A6 &amp;""",EntityNumber = " &amp; D7 &amp; ",Email =""" &amp; SUBSTITUTE(A6," ","") &amp; """,CompetitorType = " &amp; E6 &amp; ",Organisation = orgVivaDance,MobileNumber = ""021"",FirstName = """",LastName = """"};"</f>
         <v>var comptrAndradaNeaguandAlbertoJuarez_PassionofExpression = new Competitor{Id = Guid.NewGuid(),EntityName = "Andrada Neagu and Alberto Juarez _ Passion of Expression",EntityNumber = 6,Email ="AndradaNeaguandAlbertoJuarez_PassionofExpression",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1311,11 +1311,11 @@
         <v>149</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" ref="B7:B25" si="1">C7 &amp; "," &amp;B6</f>
+        <f t="shared" ref="B7:B25" si="2">C7 &amp; "," &amp;B6</f>
         <v>comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C7" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A7," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrBachasalsa_SalsaConCoco</v>
       </c>
       <c r="D7">
@@ -1325,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrBachasalsa_SalsaConCoco = new Competitor{Id = Guid.NewGuid(),EntityName = "Bachasalsa _ Salsa Con Coco",EntityNumber = 7,Email ="Bachasalsa_SalsaConCoco",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1334,11 +1334,11 @@
         <v>150</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C8" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A8," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrCaitlinQuinn_LatinFire</v>
       </c>
       <c r="D8">
@@ -1348,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrCaitlinQuinn_LatinFire = new Competitor{Id = Guid.NewGuid(),EntityName = "Caitlin Quinn _ Latin Fire",EntityNumber = 8,Email ="CaitlinQuinn_LatinFire",CompetitorType = CompetitorType.Soloist,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1357,11 +1357,11 @@
         <v>151</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C9" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A9," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons</v>
       </c>
       <c r="D9">
@@ -1371,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons = new Competitor{Id = Guid.NewGuid(),EntityName = "Charlotte Jane Buccahan and Charmaine Joy Buccahan _ Raine Symons",EntityNumber = 9,Email ="CharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons",CompetitorType = CompetitorType.Soloist,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1380,11 +1380,11 @@
         <v>152</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C10" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A10," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrDeborahChou_SalsaConCoco</v>
       </c>
       <c r="D10">
@@ -1394,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrDeborahChou_SalsaConCoco = new Competitor{Id = Guid.NewGuid(),EntityName = "Deborah Chou _ Salsa Con Coco",EntityNumber = 10,Email ="DeborahChou_SalsaConCoco",CompetitorType = CompetitorType.Soloist,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1403,11 +1403,11 @@
         <v>153</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C11" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A11," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrDeborahChouandJeorgeSequeiros_SalsaConCoco</v>
       </c>
       <c r="D11">
@@ -1417,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrDeborahChouandJeorgeSequeiros_SalsaConCoco = new Competitor{Id = Guid.NewGuid(),EntityName = "Deborah Chou and Jeorge Sequeiros _ Salsa Con Coco",EntityNumber = 11,Email ="DeborahChouandJeorgeSequeiros_SalsaConCoco",CompetitorType = CompetitorType.Soloist,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1426,11 +1426,11 @@
         <v>154</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C12" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A12," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrEDanceProductions_EDP</v>
       </c>
       <c r="D12">
@@ -1440,7 +1440,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrEDanceProductions_EDP = new Competitor{Id = Guid.NewGuid(),EntityName = "E Dance Productions _ EDP",EntityNumber = 12,Email ="EDanceProductions_EDP",CompetitorType = CompetitorType.Soloist,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1449,11 +1449,11 @@
         <v>155</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C13" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A13," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrEmilyWoodfield_StellarPerformingArts</v>
       </c>
       <c r="D13">
@@ -1463,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrEmilyWoodfield_StellarPerformingArts = new Competitor{Id = Guid.NewGuid(),EntityName = "Emily Woodfield _ Stellar Performing Arts",EntityNumber = 13,Email ="EmilyWoodfield_StellarPerformingArts",CompetitorType = CompetitorType.Soloist,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1472,11 +1472,11 @@
         <v>156</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C14" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A14," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrEstherMeenken_MamboLab</v>
       </c>
       <c r="D14">
@@ -1486,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrEstherMeenken_MamboLab = new Competitor{Id = Guid.NewGuid(),EntityName = "Esther Meenken _ Mambo Lab",EntityNumber = 14,Email ="EstherMeenken_MamboLab",CompetitorType = CompetitorType.Soloist,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1495,11 +1495,11 @@
         <v>157</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C15" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A15," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrEstherMeenkenandCorwinRuegg_MamboLab</v>
       </c>
       <c r="D15">
@@ -1509,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrEstherMeenkenandCorwinRuegg_MamboLab = new Competitor{Id = Guid.NewGuid(),EntityName = "Esther Meenken and Corwin Ruegg _ Mambo Lab",EntityNumber = 15,Email ="EstherMeenkenandCorwinRuegg_MamboLab",CompetitorType = CompetitorType.Soloist,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1518,11 +1518,11 @@
         <v>158</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C16" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A16," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrEstherMeenkenandEllenHume_MamboLab</v>
       </c>
       <c r="D16">
@@ -1532,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrEstherMeenkenandEllenHume_MamboLab = new Competitor{Id = Guid.NewGuid(),EntityName = "Esther Meenken and Ellen Hume _ Mambo Lab",EntityNumber = 16,Email ="EstherMeenkenandEllenHume_MamboLab",CompetitorType = CompetitorType.Soloist,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1541,11 +1541,11 @@
         <v>159</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C17" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A17," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrGiancarloJohanssonandHeidiCone_Latinissimo</v>
       </c>
       <c r="D17">
@@ -1555,7 +1555,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrGiancarloJohanssonandHeidiCone_Latinissimo = new Competitor{Id = Guid.NewGuid(),EntityName = "Giancarlo Johansson and Heidi Cone _ Latinissimo",EntityNumber = 17,Email ="GiancarloJohanssonandHeidiCone_Latinissimo",CompetitorType = CompetitorType.Soloist,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1564,11 +1564,11 @@
         <v>160</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C18" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A18," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrGraceBerge_RaineSymons</v>
       </c>
       <c r="D18">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrGraceBerge_RaineSymons = new Competitor{Id = Guid.NewGuid(),EntityName = "Grace Berge _ Raine Symons",EntityNumber = 18,Email ="GraceBerge_RaineSymons",CompetitorType = CompetitorType.Soloist,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1587,11 +1587,11 @@
         <v>161</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C19" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A19," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrHollyBayne_LatinFire</v>
       </c>
       <c r="D19">
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrHollyBayne_LatinFire = new Competitor{Id = Guid.NewGuid(),EntityName = "Holly Bayne _ Latin Fire",EntityNumber = 19,Email ="HollyBayne_LatinFire",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1610,11 +1610,11 @@
         <v>162</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C20" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A20," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrHollyBayneandCaitlinQuin_LatinFire</v>
       </c>
       <c r="D20">
@@ -1624,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrHollyBayneandCaitlinQuin_LatinFire = new Competitor{Id = Guid.NewGuid(),EntityName = "Holly Bayne and Caitlin Quin _ Latin Fire",EntityNumber = 20,Email ="HollyBayneandCaitlinQuin_LatinFire",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1633,11 +1633,11 @@
         <v>163</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C21" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A21," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil</v>
       </c>
       <c r="D21">
@@ -1647,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil = new Competitor{Id = Guid.NewGuid(),EntityName = "Intermediate Alliance Dance Team _ Carine Morais and Rafael Barros _ Brazil",EntityNumber = 21,Email ="IntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1656,11 +1656,11 @@
         <v>164</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C22" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A22," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrJeorgeSequeiros_SalsaConCoco</v>
       </c>
       <c r="D22">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrJeorgeSequeiros_SalsaConCoco = new Competitor{Id = Guid.NewGuid(),EntityName = "Jeorge Sequeiros _ Salsa Con Coco",EntityNumber = 22,Email ="JeorgeSequeiros_SalsaConCoco",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1679,11 +1679,11 @@
         <v>165</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C23" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A23," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrJeremySim_EncantoEntertainment</v>
       </c>
       <c r="D23">
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrJeremySim_EncantoEntertainment = new Competitor{Id = Guid.NewGuid(),EntityName = "Jeremy Sim _ Encanto Entertainment",EntityNumber = 23,Email ="JeremySim_EncantoEntertainment",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1702,11 +1702,11 @@
         <v>166</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C24" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A24," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson</v>
       </c>
       <c r="D24">
@@ -1716,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson = new Competitor{Id = Guid.NewGuid(),EntityName = "Jessica Abelen and Lev Gimelfarb _ Latinissimo Nelson",EntityNumber = 24,Email ="JessicaAbelenandLevGimelfarb_LatinissimoNelson",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1725,11 +1725,11 @@
         <v>167</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C25" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A25," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrKarenForcanoLadiesShinesTeam_SaraDjuric</v>
       </c>
       <c r="D25">
@@ -1739,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrKarenForcanoLadiesShinesTeam_SaraDjuric = new Competitor{Id = Guid.NewGuid(),EntityName = "Karen Forcano Ladies Shines Team _ Sara Djuric",EntityNumber = 25,Email ="KarenForcanoLadiesShinesTeam_SaraDjuric",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1748,11 +1748,11 @@
         <v>168</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" ref="B26:B57" si="2">C26 &amp; "," &amp;B25</f>
+        <f t="shared" ref="B26:B57" si="3">C26 &amp; "," &amp;B25</f>
         <v>comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C26" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A26," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrKatrinPechingerandKahuLeary_Self</v>
       </c>
       <c r="D26">
@@ -1771,11 +1771,11 @@
         <v>169</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" ref="B27" si="3">C27 &amp; "," &amp;B26</f>
+        <f t="shared" ref="B27" si="4">C27 &amp; "," &amp;B26</f>
         <v>comptrKearaTyler_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C27" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A27," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrKearaTyler_Self</v>
       </c>
       <c r="D27">
@@ -1798,7 +1798,7 @@
         <v>comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C28" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A28," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrKristinaKostevc_Self</v>
       </c>
       <c r="D28">
@@ -1808,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrKristinaKostevc_Self = new Competitor{Id = Guid.NewGuid(),EntityName = "Kristina Kostevc _ Self",EntityNumber = 28,Email ="KristinaKostevc_Self",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1817,11 +1817,11 @@
         <v>171</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C29" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A29," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrLatinFireBachataTeam_LatinFire</v>
       </c>
       <c r="D29">
@@ -1831,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrLatinFireBachataTeam_LatinFire = new Competitor{Id = Guid.NewGuid(),EntityName = "Latin Fire Bachata Team _ Latin Fire",EntityNumber = 29,Email ="LatinFireBachataTeam_LatinFire",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1840,11 +1840,11 @@
         <v>134</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C30" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A30," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrLatinFireYouthTeam</v>
       </c>
       <c r="D30">
@@ -1854,7 +1854,7 @@
         <v>5</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrLatinFireYouthTeam = new Competitor{Id = Guid.NewGuid(),EntityName = "Latin Fire Youth Team",EntityNumber = 30,Email ="LatinFireYouthTeam",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1863,11 +1863,11 @@
         <v>172</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C31" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A31," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrLaylaMoutrib_EDP</v>
       </c>
       <c r="D31">
@@ -1877,7 +1877,7 @@
         <v>5</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrLaylaMoutrib_EDP = new Competitor{Id = Guid.NewGuid(),EntityName = "Layla Moutrib _ EDP",EntityNumber = 31,Email ="LaylaMoutrib_EDP",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1886,11 +1886,11 @@
         <v>173</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C32" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A32," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrMandyYap_Self</v>
       </c>
       <c r="D32">
@@ -1909,11 +1909,11 @@
         <v>174</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" ref="B33" si="4">C33 &amp; "," &amp;B32</f>
+        <f t="shared" ref="B33" si="5">C33 &amp; "," &amp;B32</f>
         <v>comptrMareeHanford_LatinAddiction,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C33" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A33," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrMareeHanford_LatinAddiction</v>
       </c>
       <c r="D33">
@@ -1936,7 +1936,7 @@
         <v>comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C34" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A34," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrMiaYatiswara_SalsaLatina</v>
       </c>
       <c r="D34">
@@ -1946,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrMiaYatiswara_SalsaLatina = new Competitor{Id = Guid.NewGuid(),EntityName = "Mia Yatiswara _ Salsa Latina",EntityNumber = 34,Email ="MiaYatiswara_SalsaLatina",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1955,11 +1955,11 @@
         <v>176</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C35" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A35," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment</v>
       </c>
       <c r="D35">
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment = new Competitor{Id = Guid.NewGuid(),EntityName = "Mia Yatiswara and Jeremy Sim _ Salsa Latina and Encanto Entertainment",EntityNumber = 35,Email ="MiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -1978,11 +1978,11 @@
         <v>177</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C36" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A36," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrMichaelHobbsandStephanieHampson_Am_LatinFire</v>
       </c>
       <c r="D36">
@@ -1992,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrMichaelHobbsandStephanieHampson_Am_LatinFire = new Competitor{Id = Guid.NewGuid(),EntityName = "Michael Hobbs and Stephanie Hampson _ Am _ Latin Fire",EntityNumber = 36,Email ="MichaelHobbsandStephanieHampson_Am_LatinFire",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2001,11 +2001,11 @@
         <v>178</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C37" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A37," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrNatashaFrost_LatinFire</v>
       </c>
       <c r="D37">
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrNatashaFrost_LatinFire = new Competitor{Id = Guid.NewGuid(),EntityName = "Natasha Frost _ Latin Fire",EntityNumber = 37,Email ="NatashaFrost_LatinFire",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2024,11 +2024,11 @@
         <v>179</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C38" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A38," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrNatashaFrostandMaggieKwon_LatinFire</v>
       </c>
       <c r="D38">
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrNatashaFrostandMaggieKwon_LatinFire = new Competitor{Id = Guid.NewGuid(),EntityName = "Natasha Frost and Maggie Kwon _ Latin Fire",EntityNumber = 38,Email ="NatashaFrostandMaggieKwon_LatinFire",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2047,11 +2047,11 @@
         <v>180</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C39" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A39," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrNazeefKhanAMandEmilyGlubbPro_EDP</v>
       </c>
       <c r="D39">
@@ -2061,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrNazeefKhanAMandEmilyGlubbPro_EDP = new Competitor{Id = Guid.NewGuid(),EntityName = "Nazeef Khan AM and Emily Glubb Pro _ EDP",EntityNumber = 39,Email ="NazeefKhanAMandEmilyGlubbPro_EDP",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2070,11 +2070,11 @@
         <v>181</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C40" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A40," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrPassionOfExpressionBachataTeam_PassionofExpression</v>
       </c>
       <c r="D40">
@@ -2084,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrPassionOfExpressionBachataTeam_PassionofExpression = new Competitor{Id = Guid.NewGuid(),EntityName = "Passion Of Expression Bachata Team _ Passion of Expression",EntityNumber = 40,Email ="PassionOfExpressionBachataTeam_PassionofExpression",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2093,11 +2093,11 @@
         <v>182</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C41" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A41," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrPassionOfExpressionSalsaTeam_PassionOfExpression</v>
       </c>
       <c r="D41">
@@ -2120,7 +2120,7 @@
         <v>comptrPhyllisannTyler_Bray_Self,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C42" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A42," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrPhyllisannTyler_Bray_Self</v>
       </c>
       <c r="D42">
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" ref="F42" si="5">"var " &amp; C42 &amp;" = new Competitor{Id = Guid.NewGuid(),EntityName = """&amp; A42 &amp;""",EntityNumber = " &amp; D43 &amp; ",Email =""" &amp; SUBSTITUTE(A42," ","") &amp; """,CompetitorType = " &amp; E42 &amp; ",Organisation = orgVivaDance,MobileNumber = ""021"",FirstName = """",LastName = """"};"</f>
+        <f t="shared" ref="F42" si="6">"var " &amp; C42 &amp;" = new Competitor{Id = Guid.NewGuid(),EntityName = """&amp; A42 &amp;""",EntityNumber = " &amp; D43 &amp; ",Email =""" &amp; SUBSTITUTE(A42," ","") &amp; """,CompetitorType = " &amp; E42 &amp; ",Organisation = orgVivaDance,MobileNumber = ""021"",FirstName = """",LastName = """"};"</f>
         <v>var comptrPhyllisannTyler_Bray_Self = new Competitor{Id = Guid.NewGuid(),EntityName = "Phyllisann Tyler_Bray _ Self",EntityNumber = 42,Email ="PhyllisannTyler_Bray_Self",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
         <v>comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C43" t="str">
-        <f>"comptr" &amp;SUBSTITUTE(SUBSTITUTE(A43," ",""),"_","_")</f>
+        <f t="shared" si="0"/>
         <v>comptrRaineSymons_RainesSuavesitas</v>
       </c>
       <c r="D43">
@@ -2153,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrRaineSymons_RainesSuavesitas = new Competitor{Id = Guid.NewGuid(),EntityName = "Raine Symons _ Raines Suavesitas",EntityNumber = 43,Email ="RaineSymons_RainesSuavesitas",CompetitorType = CompetitorType.CouplesTeam,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2162,11 +2162,11 @@
         <v>185</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ref="C44" si="6">"comptr" &amp;SUBSTITUTE(A44," ","")</f>
+        <f t="shared" ref="C44" si="7">"comptr" &amp;SUBSTITUTE(A44," ","")</f>
         <v>comptrRainesSuavesitas_RaineSymons</v>
       </c>
       <c r="D44">
@@ -2176,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrRainesSuavesitas_RaineSymons = new Competitor{Id = Guid.NewGuid(),EntityName = "Raines Suavesitas _ Raine Symons",EntityNumber = 45,Email ="RainesSuavesitas_RaineSymons",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2185,11 +2185,11 @@
         <v>186</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ref="C45:C57" si="7">"comptr" &amp;SUBSTITUTE(A45," ","")</f>
+        <f t="shared" ref="C45:C57" si="8">"comptr" &amp;SUBSTITUTE(A45," ","")</f>
         <v>comptrRicardoGreccoandYanZhou_Self</v>
       </c>
       <c r="D45">
@@ -2199,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrRicardoGreccoandYanZhou_Self = new Competitor{Id = Guid.NewGuid(),EntityName = "Ricardo Grecco and Yan Zhou _ Self",EntityNumber = 46,Email ="RicardoGreccoandYanZhou_Self",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2208,11 +2208,11 @@
         <v>187</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrRitmosCandentes_SalsaLatina</v>
       </c>
       <c r="D46">
@@ -2222,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrRitmosCandentes_SalsaLatina = new Competitor{Id = Guid.NewGuid(),EntityName = "Ritmos Candentes _ Salsa Latina",EntityNumber = 47,Email ="RitmosCandentes_SalsaLatina",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2231,11 +2231,11 @@
         <v>188</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas,comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas</v>
       </c>
       <c r="D47">
@@ -2245,7 +2245,7 @@
         <v>5</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas = new Competitor{Id = Guid.NewGuid(),EntityName = "Rowena Dalumpienes and Jenina Mangoma _ Raines Suavesitas",EntityNumber = 48,Email ="RowenaDalumpienesandJeninaMangoma_RainesSuavesitas",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2254,11 +2254,11 @@
         <v>189</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrRubyGilligan_LatinFire,comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas,comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrRubyGilligan_LatinFire</v>
       </c>
       <c r="D48">
@@ -2268,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrRubyGilligan_LatinFire = new Competitor{Id = Guid.NewGuid(),EntityName = "Ruby Gilligan _ Latin Fire",EntityNumber = 49,Email ="RubyGilligan_LatinFire",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2277,11 +2277,11 @@
         <v>190</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrSalsaSabrosa_SalsaLatina,comptrRubyGilligan_LatinFire,comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas,comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrSalsaSabrosa_SalsaLatina</v>
       </c>
       <c r="D49">
@@ -2291,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrSalsaSabrosa_SalsaLatina = new Competitor{Id = Guid.NewGuid(),EntityName = "Salsa Sabrosa _ Salsa Latina",EntityNumber = 50,Email ="SalsaSabrosa_SalsaLatina",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2300,11 +2300,11 @@
         <v>191</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrSaraDjuricandSebastianVera_SaraandSebastian,comptrSalsaSabrosa_SalsaLatina,comptrRubyGilligan_LatinFire,comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas,comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrSaraDjuricandSebastianVera_SaraandSebastian</v>
       </c>
       <c r="D50">
@@ -2314,7 +2314,7 @@
         <v>5</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrSaraDjuricandSebastianVera_SaraandSebastian = new Competitor{Id = Guid.NewGuid(),EntityName = "Sara Djuric and Sebastian Vera _ Sara and Sebastian",EntityNumber = 51,Email ="SaraDjuricandSebastianVera_SaraandSebastian",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2323,11 +2323,11 @@
         <v>192</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrSarahSonalandLeylaMoutrib_EDP,comptrSaraDjuricandSebastianVera_SaraandSebastian,comptrSalsaSabrosa_SalsaLatina,comptrRubyGilligan_LatinFire,comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas,comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrSarahSonalandLeylaMoutrib_EDP</v>
       </c>
       <c r="D51">
@@ -2337,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrSarahSonalandLeylaMoutrib_EDP = new Competitor{Id = Guid.NewGuid(),EntityName = "Sarah Sonal and Leyla Moutrib _ EDP",EntityNumber = 52,Email ="SarahSonalandLeylaMoutrib_EDP",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2346,11 +2346,11 @@
         <v>193</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrSebastianVeraandKearaTyler_AM_SaraandSebastian,comptrSarahSonalandLeylaMoutrib_EDP,comptrSaraDjuricandSebastianVera_SaraandSebastian,comptrSalsaSabrosa_SalsaLatina,comptrRubyGilligan_LatinFire,comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas,comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrSebastianVeraandKearaTyler_AM_SaraandSebastian</v>
       </c>
       <c r="D52">
@@ -2360,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrSebastianVeraandKearaTyler_AM_SaraandSebastian = new Competitor{Id = Guid.NewGuid(),EntityName = "Sebastian Vera and Keara Tyler _AM _ Sara and Sebastian",EntityNumber = 53,Email ="SebastianVeraandKearaTyler_AM_SaraandSebastian",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2369,11 +2369,11 @@
         <v>194</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrSharonMiddletonandDarcyLange_Self,comptrSebastianVeraandKearaTyler_AM_SaraandSebastian,comptrSarahSonalandLeylaMoutrib_EDP,comptrSaraDjuricandSebastianVera_SaraandSebastian,comptrSalsaSabrosa_SalsaLatina,comptrRubyGilligan_LatinFire,comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas,comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrSharonMiddletonandDarcyLange_Self</v>
       </c>
       <c r="D53">
@@ -2383,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrSharonMiddletonandDarcyLange_Self = new Competitor{Id = Guid.NewGuid(),EntityName = "Sharon Middleton and Darcy Lange _ Self",EntityNumber = 54,Email ="SharonMiddletonandDarcyLange_Self",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2392,11 +2392,11 @@
         <v>195</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrShawneeDeath_RainesSuavesitas,comptrSharonMiddletonandDarcyLange_Self,comptrSebastianVeraandKearaTyler_AM_SaraandSebastian,comptrSarahSonalandLeylaMoutrib_EDP,comptrSaraDjuricandSebastianVera_SaraandSebastian,comptrSalsaSabrosa_SalsaLatina,comptrRubyGilligan_LatinFire,comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas,comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrShawneeDeath_RainesSuavesitas</v>
       </c>
       <c r="D54">
@@ -2406,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrShawneeDeath_RainesSuavesitas = new Competitor{Id = Guid.NewGuid(),EntityName = "Shawnee Death _ Raines Suavesitas",EntityNumber = 55,Email ="ShawneeDeath_RainesSuavesitas",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2415,11 +2415,11 @@
         <v>196</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrTaniaGordon_SalsaLatina,comptrShawneeDeath_RainesSuavesitas,comptrSharonMiddletonandDarcyLange_Self,comptrSebastianVeraandKearaTyler_AM_SaraandSebastian,comptrSarahSonalandLeylaMoutrib_EDP,comptrSaraDjuricandSebastianVera_SaraandSebastian,comptrSalsaSabrosa_SalsaLatina,comptrRubyGilligan_LatinFire,comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas,comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrTaniaGordon_SalsaLatina</v>
       </c>
       <c r="D55">
@@ -2429,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrTaniaGordon_SalsaLatina = new Competitor{Id = Guid.NewGuid(),EntityName = "Tania Gordon _ Salsa Latina",EntityNumber = 56,Email ="TaniaGordon_SalsaLatina",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2438,11 +2438,11 @@
         <v>197</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrYanZhou_EDanceProductions,comptrTaniaGordon_SalsaLatina,comptrShawneeDeath_RainesSuavesitas,comptrSharonMiddletonandDarcyLange_Self,comptrSebastianVeraandKearaTyler_AM_SaraandSebastian,comptrSarahSonalandLeylaMoutrib_EDP,comptrSaraDjuricandSebastianVera_SaraandSebastian,comptrSalsaSabrosa_SalsaLatina,comptrRubyGilligan_LatinFire,comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas,comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrYanZhou_EDanceProductions</v>
       </c>
       <c r="D56">
@@ -2452,7 +2452,7 @@
         <v>5</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrYanZhou_EDanceProductions = new Competitor{Id = Guid.NewGuid(),EntityName = "Yan Zhou _ E Dance Productions",EntityNumber = 57,Email ="YanZhou_EDanceProductions",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2461,11 +2461,11 @@
         <v>198</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>comptrYoheiMikawa_TempoDanceCompany,comptrYanZhou_EDanceProductions,comptrTaniaGordon_SalsaLatina,comptrShawneeDeath_RainesSuavesitas,comptrSharonMiddletonandDarcyLange_Self,comptrSebastianVeraandKearaTyler_AM_SaraandSebastian,comptrSarahSonalandLeylaMoutrib_EDP,comptrSaraDjuricandSebastianVera_SaraandSebastian,comptrSalsaSabrosa_SalsaLatina,comptrRubyGilligan_LatinFire,comptrRowenaDalumpienesandJeninaMangoma_RainesSuavesitas,comptrRitmosCandentes_SalsaLatina,comptrRicardoGreccoandYanZhou_Self,comptrRainesSuavesitas_RaineSymons,comptrRaineSymons_RainesSuavesitas,comptrPassionOfExpressionSalsaTeam_PassionOfExpression,comptrPassionOfExpressionBachataTeam_PassionofExpression,comptrNazeefKhanAMandEmilyGlubbPro_EDP,comptrNatashaFrostandMaggieKwon_LatinFire,comptrNatashaFrost_LatinFire,comptrMichaelHobbsandStephanieHampson_Am_LatinFire,comptrMiaYatiswaraandJeremySim_SalsaLatinaandEncantoEntertainment,comptrMiaYatiswara_SalsaLatina,comptrMandyYap_Self,comptrLaylaMoutrib_EDP,comptrLatinFireYouthTeam,comptrLatinFireBachataTeam_LatinFire,comptrKristinaKostevc_Self,comptrKatrinPechingerandKahuLeary_Self,comptrKarenForcanoLadiesShinesTeam_SaraDjuric,comptrJessicaAbelenandLevGimelfarb_LatinissimoNelson,comptrJeremySim_EncantoEntertainment,comptrJeorgeSequeiros_SalsaConCoco,comptrIntermediateAllianceDanceTeam_CarineMoraisandRafaelBarros_Brazil,comptrHollyBayneandCaitlinQuin_LatinFire,comptrHollyBayne_LatinFire,comptrGraceBerge_RaineSymons,comptrGiancarloJohanssonandHeidiCone_Latinissimo,comptrEstherMeenkenandEllenHume_MamboLab,comptrEstherMeenkenandCorwinRuegg_MamboLab,comptrEstherMeenken_MamboLab,comptrEmilyWoodfield_StellarPerformingArts,comptrEDanceProductions_EDP,comptrDeborahChouandJeorgeSequeiros_SalsaConCoco,comptrDeborahChou_SalsaConCoco,comptrCharlotteJaneBuccahanandCharmaineJoyBuccahan_RaineSymons,comptrCaitlinQuinn_LatinFire,comptrBachasalsa_SalsaConCoco,comptrAndradaNeaguandAlbertoJuarez_PassionofExpression,comptrAcereBongo_SalsaConCoco,</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>comptrYoheiMikawa_TempoDanceCompany</v>
       </c>
       <c r="D57">
@@ -2475,7 +2475,7 @@
         <v>5</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>var comptrYoheiMikawa_TempoDanceCompany = new Competitor{Id = Guid.NewGuid(),EntityName = "Yohei Mikawa _ Tempo Dance Company",EntityNumber = ,Email ="YoheiMikawa_TempoDanceCompany",CompetitorType = CompetitorType.Couple,Organisation = orgVivaDance,MobileNumber = "021",FirstName = "",LastName = ""};</v>
       </c>
     </row>
@@ -2495,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="N7" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,7 +2535,7 @@
         <v>compYouthSalsaSoloMixed</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D17" si="1">C2 &amp; "," &amp;D1</f>
+        <f t="shared" ref="D2:D26" si="1">C2 &amp; "," &amp;D1</f>
         <v>compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E2">
@@ -2556,12 +2556,12 @@
         <v>Youth Salsa Solo Mixed</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L17" si="2">"var "&amp;C2&amp;" = new Competition { Id = Guid.NewGuid(), Location = location, Name = """&amp;B2&amp;""", " &amp; "Category = "&amp;F2&amp;".Categories.First(x=&gt;x.Caption=="""&amp;H2&amp;"""), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse(""2014-11-15 "&amp;A2&amp;"""), CompletedOn = null, " &amp; "CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };"</f>
-        <v>var compYouthSalsaSoloMixed = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Salsa Solo Mixed", Category = divYouth.Categories.First(x=&gt;x.Caption=="Salsa Solo Mixed"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.541666666666667"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <f>"var "&amp;C2&amp;" = new Competition { Id = Guid.NewGuid(), Location = location, Name = """&amp;B2&amp;""", " &amp; "Category = "&amp;F2&amp;".Categories.First(x=&gt;x.Caption=="""&amp;B2&amp;"""), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse(""2014-11-15 "&amp;A2&amp;"""), CompletedOn = null, " &amp; "CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };"</f>
+        <v>var compYouthSalsaSoloMixed = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Salsa Solo Mixed", Category = divYouth.Categories.First(x=&gt;x.Caption=="Youth Salsa Solo Mixed"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.541666666666667"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD2" t="str">
-        <f>F2 &amp;"."&amp; VLOOKUP(H2,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divYouth.Categories.Add(new Category{Caption = "Salsa Solo Mixed",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F2 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H2,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G2 &amp;" ")</f>
+        <v>divYouth.Categories.Add(new Category{Caption = "Youth Salsa Solo Mixed",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -2594,16 +2594,16 @@
         <v>120</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J18" si="3">G3 &amp; " " &amp;H3</f>
+        <f t="shared" ref="J3:J18" si="2">G3 &amp; " " &amp;H3</f>
         <v>Youth Latin Solo Mixed</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="2"/>
-        <v>var compYouthLatinSoloMixed = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Latin Solo Mixed", Category = divYouth.Categories.First(x=&gt;x.Caption=="Latin Solo Mixed"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.552083333333333"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <f t="shared" ref="L3:L26" si="3">"var "&amp;C3&amp;" = new Competition { Id = Guid.NewGuid(), Location = location, Name = """&amp;B3&amp;""", " &amp; "Category = "&amp;F3&amp;".Categories.First(x=&gt;x.Caption=="""&amp;B3&amp;"""), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse(""2014-11-15 "&amp;A3&amp;"""), CompletedOn = null, " &amp; "CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };"</f>
+        <v>var compYouthLatinSoloMixed = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Latin Solo Mixed", Category = divYouth.Categories.First(x=&gt;x.Caption=="Youth Latin Solo Mixed"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.552083333333333"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD3" t="str">
-        <f>F3 &amp;"."&amp; VLOOKUP(H3,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divYouth.Categories.Add(new Category{Caption = "Latin Solo Mixed",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F3 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H3,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G3 &amp;" ")</f>
+        <v>divYouth.Categories.Add(new Category{Caption = "Youth Latin Solo Mixed",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -2619,8 +2619,8 @@
         <v>compYouthSalsaSoloTeams</v>
       </c>
       <c r="D4" t="str">
-        <f>C4 &amp; "," &amp;D2</f>
-        <v>compYouthSalsaSoloTeams,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2636,16 +2636,16 @@
         <v>131</v>
       </c>
       <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>Youth Salsa Solo Teams</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="3"/>
-        <v>Youth Salsa Solo Teams</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4" si="6">"var "&amp;C4&amp;" = new Competition { Id = Guid.NewGuid(), Location = location, Name = """&amp;B4&amp;""", " &amp; "Category = "&amp;F4&amp;".Categories.First(x=&gt;x.Caption=="""&amp;H4&amp;"""), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse(""2014-11-15 "&amp;A4&amp;"""), CompletedOn = null, " &amp; "CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };"</f>
-        <v>var compYouthSalsaSoloTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Salsa Solo Teams", Category = divYouth.Categories.First(x=&gt;x.Caption=="Salsa Solo Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.5625"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compYouthSalsaSoloTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Salsa Solo Teams", Category = divYouth.Categories.First(x=&gt;x.Caption=="Youth Salsa Solo Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.5625"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD4" t="str">
-        <f>F4 &amp;"."&amp; VLOOKUP(H4,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divYouth.Categories.Add(new Category{Caption = "Salsa Solo Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F4 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H4,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G4 &amp;" ")</f>
+        <v>divYouth.Categories.Add(new Category{Caption = "Youth Salsa Solo Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
@@ -2657,12 +2657,12 @@
         <v>Youth Latin Solo Teams</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C17" si="7">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B5," ",""),"–","")</f>
+        <f t="shared" ref="C5:C17" si="6">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B5," ",""),"–","")</f>
         <v>compYouthLatinSoloTeams</v>
       </c>
       <c r="D5" t="str">
-        <f>C5 &amp; "," &amp;D3</f>
-        <v>compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2678,16 +2678,16 @@
         <v>132</v>
       </c>
       <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>Youth Latin Solo Teams</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="3"/>
-        <v>Youth Latin Solo Teams</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="2"/>
-        <v>var compYouthLatinSoloTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Latin Solo Teams", Category = divYouth.Categories.First(x=&gt;x.Caption=="Latin Solo Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.5625"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compYouthLatinSoloTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Latin Solo Teams", Category = divYouth.Categories.First(x=&gt;x.Caption=="Youth Latin Solo Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.5625"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD5" t="str">
-        <f>F5 &amp;"."&amp; VLOOKUP(H5,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divYouth.Categories.Add(new Category{Caption = "Latin Solo Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F5 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H5,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G5 &amp;" ")</f>
+        <v>divYouth.Categories.Add(new Category{Caption = "Youth Latin Solo Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -2699,12 +2699,12 @@
         <v>Youth Salsa Duets Mixed</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>compYouthSalsaDuetsMixed</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="1"/>
-        <v>compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <v>compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2720,16 +2720,16 @@
         <v>121</v>
       </c>
       <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>Youth Salsa Duets Mixed</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="3"/>
-        <v>Youth Salsa Duets Mixed</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="2"/>
-        <v>var compYouthSalsaDuetsMixed = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Salsa Duets Mixed", Category = divYouth.Categories.First(x=&gt;x.Caption=="Salsa Duets Mixed"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.572916666666667"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compYouthSalsaDuetsMixed = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Salsa Duets Mixed", Category = divYouth.Categories.First(x=&gt;x.Caption=="Youth Salsa Duets Mixed"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.572916666666667"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD6" t="str">
-        <f>F6 &amp;"."&amp; VLOOKUP(H6,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divYouth.Categories.Add(new Category{Caption = "Salsa Duets Mixed",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F6 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H6,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G6 &amp;" ")</f>
+        <v>divYouth.Categories.Add(new Category{Caption = "Youth Salsa Duets Mixed",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
@@ -2741,12 +2741,12 @@
         <v>Youth Latin Duets Mixed</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>compYouthLatinDuetsMixed</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
-        <v>compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <v>compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -2762,16 +2762,16 @@
         <v>133</v>
       </c>
       <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>Youth Latin Duets Mixed</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="3"/>
-        <v>Youth Latin Duets Mixed</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="2"/>
-        <v>var compYouthLatinDuetsMixed = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Latin Duets Mixed", Category = divYouth.Categories.First(x=&gt;x.Caption=="Latin Duets Mixed"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.583333333333334"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compYouthLatinDuetsMixed = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Youth Latin Duets Mixed", Category = divYouth.Categories.First(x=&gt;x.Caption=="Youth Latin Duets Mixed"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.583333333333334"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD7" t="str">
-        <f>F7 &amp;"."&amp; VLOOKUP(H7,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divYouth.Categories.Add(new Category{Caption = "Latin Duets Mixed",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F7 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H7,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G7 &amp;" ")</f>
+        <v>divYouth.Categories.Add(new Category{Caption = "Youth Latin Duets Mixed",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -2783,12 +2783,12 @@
         <v>Amateur Salsa Solo Female</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>compAmateurSalsaSoloFemale</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
-        <v>compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <v>compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -2804,16 +2804,16 @@
         <v>27</v>
       </c>
       <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>Amateur Salsa Solo Female</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="3"/>
-        <v>Amateur Salsa Solo Female</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="2"/>
-        <v>var compAmateurSalsaSoloFemale = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Amateur Salsa Solo Female", Category = divAmatuer.Categories.First(x=&gt;x.Caption=="Salsa Solo Female"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.59375"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compAmateurSalsaSoloFemale = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Amateur Salsa Solo Female", Category = divAmatuer.Categories.First(x=&gt;x.Caption=="Amateur Salsa Solo Female"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.59375"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD8" t="str">
-        <f>F8 &amp;"."&amp; VLOOKUP(H8,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divAmatuer.Categories.Add(new Category{Caption = "Salsa Solo Female",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F8 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H8,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G8 &amp;" ")</f>
+        <v>divAmatuer.Categories.Add(new Category{Caption = "Amateur Salsa Solo Female",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -2825,12 +2825,12 @@
         <v>Semi_Pro Salsa Solo Female</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>compSemi_ProSalsaSoloFemale</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
-        <v>compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <v>compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -2846,16 +2846,16 @@
         <v>27</v>
       </c>
       <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>Semi_Pro Salsa Solo Female</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="3"/>
-        <v>Semi_Pro Salsa Solo Female</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="2"/>
-        <v>var compSemi_ProSalsaSoloFemale = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Semi_Pro Salsa Solo Female", Category = divSemiPro.Categories.First(x=&gt;x.Caption=="Salsa Solo Female"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.604166666666667"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compSemi_ProSalsaSoloFemale = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Semi_Pro Salsa Solo Female", Category = divSemiPro.Categories.First(x=&gt;x.Caption=="Semi_Pro Salsa Solo Female"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.604166666666667"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD9" t="str">
-        <f>F9 &amp;"."&amp; VLOOKUP(H9,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divSemiPro.Categories.Add(new Category{Caption = "Salsa Solo Female",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F9 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H9,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G9 &amp;" ")</f>
+        <v>divSemiPro.Categories.Add(new Category{Caption = "Semi_Pro Salsa Solo Female",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -2867,12 +2867,12 @@
         <v>Professional Salsa Solo Female</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>compProfessionalSalsaSoloFemale</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
-        <v>compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <v>compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2888,16 +2888,16 @@
         <v>27</v>
       </c>
       <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>Professional Salsa Solo Female</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="3"/>
-        <v>Professional Salsa Solo Female</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="2"/>
-        <v>var compProfessionalSalsaSoloFemale = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Professional Salsa Solo Female", Category = divProf.Categories.First(x=&gt;x.Caption=="Salsa Solo Female"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.614583333333334"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compProfessionalSalsaSoloFemale = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Professional Salsa Solo Female", Category = divProf.Categories.First(x=&gt;x.Caption=="Professional Salsa Solo Female"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.614583333333334"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD10" t="str">
-        <f>F10 &amp;"."&amp; VLOOKUP(H10,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divProf.Categories.Add(new Category{Caption = "Salsa Solo Female",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F10 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H10,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G10 &amp;" ")</f>
+        <v>divProf.Categories.Add(new Category{Caption = "Professional Salsa Solo Female",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -2909,12 +2909,12 @@
         <v>Professional Salsa Solo Male</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>compProfessionalSalsaSoloMale</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
-        <v>compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <v>compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -2930,16 +2930,16 @@
         <v>28</v>
       </c>
       <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>Professional Salsa Solo Male</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="3"/>
-        <v>Professional Salsa Solo Male</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="2"/>
-        <v>var compProfessionalSalsaSoloMale = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Professional Salsa Solo Male", Category = divProf.Categories.First(x=&gt;x.Caption=="Salsa Solo Male"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.625000000000001"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compProfessionalSalsaSoloMale = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Professional Salsa Solo Male", Category = divProf.Categories.First(x=&gt;x.Caption=="Professional Salsa Solo Male"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.625000000000001"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD11" t="str">
-        <f>F11 &amp;"."&amp; VLOOKUP(H11,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divProf.Categories.Add(new Category{Caption = "Salsa Solo Male",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F11 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H11,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G11 &amp;" ")</f>
+        <v>divProf.Categories.Add(new Category{Caption = "Professional Salsa Solo Male",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -2951,12 +2951,12 @@
         <v>Open Latin Solo</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>compOpenLatinSolo</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
-        <v>compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <v>compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2972,16 +2972,16 @@
         <v>129</v>
       </c>
       <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>Open Latin Solo</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="3"/>
-        <v>Open Latin Solo</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="2"/>
-        <v>var compOpenLatinSolo = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Latin Solo", Category = divOpen.Categories.First(x=&gt;x.Caption=="Latin Solo"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.635416666666667"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compOpenLatinSolo = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Latin Solo", Category = divOpen.Categories.First(x=&gt;x.Caption=="Open Latin Solo"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.635416666666667"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD12" t="str">
-        <f>F12 &amp;"."&amp; VLOOKUP(H12,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divOpen.Categories.Add(new Category{Caption = "Latin Solo",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F12 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H12,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G12 &amp;" ")</f>
+        <v>divOpen.Categories.Add(new Category{Caption = "Open Latin Solo",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
@@ -2989,16 +2989,16 @@
         <v>0.64583333333333404</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" ref="B13" si="8">G13 &amp; " " &amp; H13</f>
+        <f t="shared" ref="B13" si="7">G13 &amp; " " &amp; H13</f>
         <v>Semi_Pro Salsa Couples</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13" si="9">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B13," ",""),"–","")</f>
+        <f t="shared" ref="C13" si="8">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B13," ",""),"–","")</f>
         <v>compSemi_ProSalsaCouples</v>
       </c>
       <c r="D13" t="str">
-        <f>C13 &amp; "," &amp;D11</f>
-        <v>compSemi_ProSalsaCouples,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -3014,16 +3014,16 @@
         <v>8</v>
       </c>
       <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>Semi_Pro Salsa Couples</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="3"/>
-        <v>Semi_Pro Salsa Couples</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" ref="L13" si="10">"var "&amp;C13&amp;" = new Competition { Id = Guid.NewGuid(), Location = location, Name = """&amp;B13&amp;""", " &amp; "Category = "&amp;F13&amp;".Categories.First(x=&gt;x.Caption=="""&amp;H13&amp;"""), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse(""2014-11-15 "&amp;A13&amp;"""), CompletedOn = null, " &amp; "CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };"</f>
-        <v>var compSemi_ProSalsaCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Semi_Pro Salsa Couples", Category = divSemiPro.Categories.First(x=&gt;x.Caption=="Salsa Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.645833333333334"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compSemi_ProSalsaCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Semi_Pro Salsa Couples", Category = divSemiPro.Categories.First(x=&gt;x.Caption=="Semi_Pro Salsa Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.645833333333334"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD13" t="str">
-        <f>F13 &amp;"."&amp; VLOOKUP(H13,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divSemiPro.Categories.Add(new Category{Caption = "Salsa Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F13 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H13,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G13 &amp;" ")</f>
+        <v>divSemiPro.Categories.Add(new Category{Caption = "Semi_Pro Salsa Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
@@ -3035,12 +3035,12 @@
         <v>Professional Salsa Couples</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>compProfessionalSalsaCouples</v>
       </c>
       <c r="D14" t="str">
-        <f>C14 &amp; "," &amp;D12</f>
-        <v>compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -3056,16 +3056,16 @@
         <v>8</v>
       </c>
       <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>Professional Salsa Couples</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="3"/>
-        <v>Professional Salsa Couples</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="2"/>
-        <v>var compProfessionalSalsaCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Professional Salsa Couples", Category = divProf.Categories.First(x=&gt;x.Caption=="Salsa Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.645833333333334"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compProfessionalSalsaCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Professional Salsa Couples", Category = divProf.Categories.First(x=&gt;x.Caption=="Professional Salsa Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.645833333333334"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD14" t="str">
-        <f>F14 &amp;"."&amp; VLOOKUP(H14,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divProf.Categories.Add(new Category{Caption = "Salsa Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F14 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H14,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G14 &amp;" ")</f>
+        <v>divProf.Categories.Add(new Category{Caption = "Professional Salsa Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
@@ -3077,12 +3077,12 @@
         <v>Open Salsa Couples</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>compOpenSalsaCouples</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
-        <v>compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <v>compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -3098,16 +3098,16 @@
         <v>8</v>
       </c>
       <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>Open Salsa Couples</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="3"/>
-        <v>Open Salsa Couples</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="2"/>
-        <v>var compOpenSalsaCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Salsa Couples", Category = divOpen.Categories.First(x=&gt;x.Caption=="Salsa Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.656250000000001"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compOpenSalsaCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Salsa Couples", Category = divOpen.Categories.First(x=&gt;x.Caption=="Open Salsa Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.656250000000001"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD15" t="str">
-        <f>F15 &amp;"."&amp; VLOOKUP(H15,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divOpen.Categories.Add(new Category{Caption = "Salsa Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F15 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H15,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G15 &amp;" ")</f>
+        <v>divOpen.Categories.Add(new Category{Caption = "Open Salsa Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
@@ -3119,12 +3119,12 @@
         <v>Semi_Pro Bachata Couples</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>compSemi_ProBachataCouples</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
-        <v>compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <v>compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -3140,16 +3140,16 @@
         <v>18</v>
       </c>
       <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>Semi_Pro Bachata Couples</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="3"/>
-        <v>Semi_Pro Bachata Couples</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="2"/>
-        <v>var compSemi_ProBachataCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Semi_Pro Bachata Couples", Category = divSemiPro.Categories.First(x=&gt;x.Caption=="Bachata Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.666666666666668"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compSemi_ProBachataCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Semi_Pro Bachata Couples", Category = divSemiPro.Categories.First(x=&gt;x.Caption=="Semi_Pro Bachata Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.666666666666668"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD16" t="str">
-        <f>F16 &amp;"."&amp; VLOOKUP(H16,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divSemiPro.Categories.Add(new Category{Caption = "Bachata Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F16 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H16,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G16 &amp;" ")</f>
+        <v>divSemiPro.Categories.Add(new Category{Caption = "Semi_Pro Bachata Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3161,12 +3161,12 @@
         <v>Professional Bachata Couples</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>compProfessionalBachataCouples</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
-        <v>compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <v>compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -3182,16 +3182,16 @@
         <v>18</v>
       </c>
       <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>Professional Bachata Couples</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="3"/>
-        <v>Professional Bachata Couples</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="2"/>
-        <v>var compProfessionalBachataCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Professional Bachata Couples", Category = divProf.Categories.First(x=&gt;x.Caption=="Bachata Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compProfessionalBachataCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Professional Bachata Couples", Category = divProf.Categories.First(x=&gt;x.Caption=="Professional Bachata Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD17" t="str">
-        <f>F17 &amp;"."&amp; VLOOKUP(H17,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divProf.Categories.Add(new Category{Caption = "Bachata Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F17 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H17,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G17 &amp;" ")</f>
+        <v>divProf.Categories.Add(new Category{Caption = "Professional Bachata Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3199,16 +3199,16 @@
         <v>0.67708333333333504</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" ref="B18" si="11">G18 &amp; " " &amp; H18</f>
+        <f t="shared" ref="B18" si="9">G18 &amp; " " &amp; H18</f>
         <v>Open Latin Couples</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18" si="12">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B18," ",""),"–","")</f>
+        <f t="shared" ref="C18" si="10">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B18," ",""),"–","")</f>
         <v>compOpenLatinCouples</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ref="D18" si="13">C18 &amp; "," &amp;D17</f>
-        <v>compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -3224,16 +3224,16 @@
         <v>81</v>
       </c>
       <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>Open Latin Couples</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="3"/>
-        <v>Open Latin Couples</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" ref="L18" si="14">"var "&amp;C18&amp;" = new Competition { Id = Guid.NewGuid(), Location = location, Name = """&amp;B18&amp;""", " &amp; "Category = "&amp;F18&amp;".Categories.First(x=&gt;x.Caption=="""&amp;H18&amp;"""), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse(""2014-11-15 "&amp;A18&amp;"""), CompletedOn = null, " &amp; "CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };"</f>
-        <v>var compOpenLatinCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Latin Couples", Category = divOpen.Categories.First(x=&gt;x.Caption=="Latin Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <v>var compOpenLatinCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Latin Couples", Category = divOpen.Categories.First(x=&gt;x.Caption=="Open Latin Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD18" t="str">
-        <f>F18 &amp;"."&amp; VLOOKUP(H18,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divOpen.Categories.Add(new Category{Caption = "Latin Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F18 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H18,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G18 &amp;" ")</f>
+        <v>divOpen.Categories.Add(new Category{Caption = "Open Latin Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3241,16 +3241,16 @@
         <v>0.67708333333333504</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" ref="B19:B20" si="15">G19 &amp; " " &amp; H19</f>
+        <f t="shared" ref="B19:B20" si="11">G19 &amp; " " &amp; H19</f>
         <v>Open Salsa Shines Duets</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:C20" si="16">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B19," ",""),"–","")</f>
+        <f t="shared" ref="C19:C20" si="12">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B19," ",""),"–","")</f>
         <v>compOpenSalsaShinesDuets</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D20" si="17">C19 &amp; "," &amp;D18</f>
-        <v>compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -3266,16 +3266,16 @@
         <v>25</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" ref="J19:J20" si="18">G19 &amp; " " &amp;H19</f>
+        <f t="shared" ref="J19:J20" si="13">G19 &amp; " " &amp;H19</f>
         <v>Open Salsa Shines Duets</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" ref="L19:L20" si="19">"var "&amp;C19&amp;" = new Competition { Id = Guid.NewGuid(), Location = location, Name = """&amp;B19&amp;""", " &amp; "Category = "&amp;F19&amp;".Categories.First(x=&gt;x.Caption=="""&amp;H19&amp;"""), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse(""2014-11-15 "&amp;A19&amp;"""), CompletedOn = null, " &amp; "CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };"</f>
-        <v>var compOpenSalsaShinesDuets = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Salsa Shines Duets", Category = divOpen.Categories.First(x=&gt;x.Caption=="Salsa Shines Duets"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <f t="shared" si="3"/>
+        <v>var compOpenSalsaShinesDuets = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Salsa Shines Duets", Category = divOpen.Categories.First(x=&gt;x.Caption=="Open Salsa Shines Duets"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD19" t="str">
-        <f>F19 &amp;"."&amp; VLOOKUP(H19,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divOpen.Categories.Add(new Category{Caption = "Salsa Shines Duets",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F19 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H19,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G19 &amp;" ")</f>
+        <v>divOpen.Categories.Add(new Category{Caption = "Open Salsa Shines Duets",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3283,16 +3283,16 @@
         <v>0.67708333333333504</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Open Latin Shines Duets</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>compOpenLatinShinesDuets</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="17"/>
-        <v>compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -3308,16 +3308,16 @@
         <v>123</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>Open Latin Shines Duets</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="19"/>
-        <v>var compOpenLatinShinesDuets = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Latin Shines Duets", Category = divOpen.Categories.First(x=&gt;x.Caption=="Latin Shines Duets"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <f t="shared" si="3"/>
+        <v>var compOpenLatinShinesDuets = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Latin Shines Duets", Category = divOpen.Categories.First(x=&gt;x.Caption=="Open Latin Shines Duets"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD20" t="str">
-        <f>F20 &amp;"."&amp; VLOOKUP(H20,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divOpen.Categories.Add(new Category{Caption = "Latin Shines Duets",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F20 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H20,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G20 &amp;" ")</f>
+        <v>divOpen.Categories.Add(new Category{Caption = "Open Latin Shines Duets",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3325,16 +3325,16 @@
         <v>0.67708333333333504</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" ref="B21:B22" si="20">G21 &amp; " " &amp; H21</f>
+        <f t="shared" ref="B21:B22" si="14">G21 &amp; " " &amp; H21</f>
         <v>Pro_Am Latin Couples</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:C22" si="21">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B21," ",""),"–","")</f>
+        <f t="shared" ref="C21:C22" si="15">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B21," ",""),"–","")</f>
         <v>compPro_AmLatinCouples</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" ref="D21:D22" si="22">C21 &amp; "," &amp;D20</f>
-        <v>compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -3350,16 +3350,16 @@
         <v>81</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" ref="J21:J22" si="23">G21 &amp; " " &amp;H21</f>
+        <f t="shared" ref="J21:J22" si="16">G21 &amp; " " &amp;H21</f>
         <v>Pro_Am Latin Couples</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:L22" si="24">"var "&amp;C21&amp;" = new Competition { Id = Guid.NewGuid(), Location = location, Name = """&amp;B21&amp;""", " &amp; "Category = "&amp;F21&amp;".Categories.First(x=&gt;x.Caption=="""&amp;H21&amp;"""), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse(""2014-11-15 "&amp;A21&amp;"""), CompletedOn = null, " &amp; "CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };"</f>
-        <v>var compPro_AmLatinCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Pro_Am Latin Couples", Category = divProAm.Categories.First(x=&gt;x.Caption=="Latin Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <f t="shared" si="3"/>
+        <v>var compPro_AmLatinCouples = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Pro_Am Latin Couples", Category = divProAm.Categories.First(x=&gt;x.Caption=="Pro_Am Latin Couples"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD21" t="str">
-        <f>F21 &amp;"."&amp; VLOOKUP(H21,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divProAm.Categories.Add(new Category{Caption = "Latin Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F21 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H21,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G21 &amp;" ")</f>
+        <v>divProAm.Categories.Add(new Category{Caption = "Pro_Am Latin Couples",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3367,16 +3367,16 @@
         <v>0.67708333333333504</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>Amateur Salsa Teams</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>compAmateurSalsaTeams</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="22"/>
-        <v>compAmateurSalsaTeams,compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compAmateurSalsaTeams,compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -3392,16 +3392,16 @@
         <v>29</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>Amateur Salsa Teams</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="24"/>
-        <v>var compAmateurSalsaTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Amateur Salsa Teams", Category = divAmatuer.Categories.First(x=&gt;x.Caption=="Salsa Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <f t="shared" si="3"/>
+        <v>var compAmateurSalsaTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Amateur Salsa Teams", Category = divAmatuer.Categories.First(x=&gt;x.Caption=="Amateur Salsa Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD22" t="str">
-        <f>F22 &amp;"."&amp; VLOOKUP(H22,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divAmatuer.Categories.Add(new Category{Caption = "Salsa Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F22 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H22,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G22 &amp;" ")</f>
+        <v>divAmatuer.Categories.Add(new Category{Caption = "Amateur Salsa Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3409,16 +3409,16 @@
         <v>0.67708333333333504</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" ref="B23" si="25">G23 &amp; " " &amp; H23</f>
+        <f t="shared" ref="B23" si="17">G23 &amp; " " &amp; H23</f>
         <v>Open Salsa Teams</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ref="C23" si="26">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B23," ",""),"–","")</f>
+        <f t="shared" ref="C23" si="18">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B23," ",""),"–","")</f>
         <v>compOpenSalsaTeams</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23" si="27">C23 &amp; "," &amp;D22</f>
-        <v>compOpenSalsaTeams,compAmateurSalsaTeams,compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compOpenSalsaTeams,compAmateurSalsaTeams,compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -3434,16 +3434,16 @@
         <v>29</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J23" si="28">G23 &amp; " " &amp;H23</f>
+        <f t="shared" ref="J23" si="19">G23 &amp; " " &amp;H23</f>
         <v>Open Salsa Teams</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" ref="L23" si="29">"var "&amp;C23&amp;" = new Competition { Id = Guid.NewGuid(), Location = location, Name = """&amp;B23&amp;""", " &amp; "Category = "&amp;F23&amp;".Categories.First(x=&gt;x.Caption=="""&amp;H23&amp;"""), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse(""2014-11-15 "&amp;A23&amp;"""), CompletedOn = null, " &amp; "CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };"</f>
-        <v>var compOpenSalsaTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Salsa Teams", Category = divOpen.Categories.First(x=&gt;x.Caption=="Salsa Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <f t="shared" si="3"/>
+        <v>var compOpenSalsaTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Salsa Teams", Category = divOpen.Categories.First(x=&gt;x.Caption=="Open Salsa Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD23" t="str">
-        <f>F23 &amp;"."&amp; VLOOKUP(H23,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divOpen.Categories.Add(new Category{Caption = "Salsa Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F23 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H23,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G23 &amp;" ")</f>
+        <v>divOpen.Categories.Add(new Category{Caption = "Open Salsa Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3451,16 +3451,16 @@
         <v>0.67708333333333504</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B26" si="30">G24 &amp; " " &amp; H24</f>
+        <f t="shared" ref="B24:B26" si="20">G24 &amp; " " &amp; H24</f>
         <v>Open Latin Teams</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24:C26" si="31">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B24," ",""),"–","")</f>
+        <f t="shared" ref="C24:C26" si="21">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B24," ",""),"–","")</f>
         <v>compOpenLatinTeams</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ref="D24:D26" si="32">C24 &amp; "," &amp;D23</f>
-        <v>compOpenLatinTeams,compOpenSalsaTeams,compAmateurSalsaTeams,compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compOpenLatinTeams,compOpenSalsaTeams,compAmateurSalsaTeams,compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -3476,16 +3476,16 @@
         <v>22</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ref="J24:J26" si="33">G24 &amp; " " &amp;H24</f>
+        <f t="shared" ref="J24:J26" si="22">G24 &amp; " " &amp;H24</f>
         <v>Open Latin Teams</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" ref="L24:L26" si="34">"var "&amp;C24&amp;" = new Competition { Id = Guid.NewGuid(), Location = location, Name = """&amp;B24&amp;""", " &amp; "Category = "&amp;F24&amp;".Categories.First(x=&gt;x.Caption=="""&amp;H24&amp;"""), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse(""2014-11-15 "&amp;A24&amp;"""), CompletedOn = null, " &amp; "CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };"</f>
-        <v>var compOpenLatinTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Latin Teams", Category = divOpen.Categories.First(x=&gt;x.Caption=="Latin Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <f t="shared" si="3"/>
+        <v>var compOpenLatinTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Latin Teams", Category = divOpen.Categories.First(x=&gt;x.Caption=="Open Latin Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD24" t="str">
-        <f>F24 &amp;"."&amp; VLOOKUP(H24,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divOpen.Categories.Add(new Category{Caption = "Latin Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F24 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H24,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G24 &amp;" ")</f>
+        <v>divOpen.Categories.Add(new Category{Caption = "Open Latin Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3493,16 +3493,16 @@
         <v>0.67708333333333504</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>Open Salsa Shines Teams</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>compOpenSalsaShinesTeams</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="32"/>
-        <v>compOpenSalsaShinesTeams,compOpenLatinTeams,compOpenSalsaTeams,compAmateurSalsaTeams,compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compOpenSalsaShinesTeams,compOpenLatinTeams,compOpenSalsaTeams,compAmateurSalsaTeams,compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -3518,16 +3518,16 @@
         <v>26</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>Open Salsa Shines Teams</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="34"/>
-        <v>var compOpenSalsaShinesTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Salsa Shines Teams", Category = divOpen.Categories.First(x=&gt;x.Caption=="Salsa Shines Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <f t="shared" si="3"/>
+        <v>var compOpenSalsaShinesTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Salsa Shines Teams", Category = divOpen.Categories.First(x=&gt;x.Caption=="Open Salsa Shines Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD25" t="str">
-        <f>F25 &amp;"."&amp; VLOOKUP(H25,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divOpen.Categories.Add(new Category{Caption = "Salsa Shines Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F25 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H25,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G25 &amp;" ")</f>
+        <v>divOpen.Categories.Add(new Category{Caption = "Open Salsa Shines Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3535,16 +3535,16 @@
         <v>0.67708333333333504</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>Open Latin Shines Teams</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>compOpenLatinShinesTeams</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="32"/>
-        <v>compOpenLatinShinesTeams,compOpenSalsaShinesTeams,compOpenLatinTeams,compOpenSalsaTeams,compAmateurSalsaTeams,compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
+        <f t="shared" si="1"/>
+        <v>compOpenLatinShinesTeams,compOpenSalsaShinesTeams,compOpenLatinTeams,compOpenSalsaTeams,compAmateurSalsaTeams,compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -3560,27 +3560,27 @@
         <v>21</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>Open Latin Shines Teams</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="34"/>
-        <v>var compOpenLatinShinesTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Latin Shines Teams", Category = divOpen.Categories.First(x=&gt;x.Caption=="Latin Shines Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+        <f t="shared" si="3"/>
+        <v>var compOpenLatinShinesTeams = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Open Latin Shines Teams", Category = divOpen.Categories.First(x=&gt;x.Caption=="Open Latin Shines Teams"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 0.677083333333335"), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
       </c>
       <c r="AD26" t="str">
-        <f>F26 &amp;"."&amp; VLOOKUP(H26,categories!$A$1:$D$39,4,FALSE)</f>
-        <v>divOpen.Categories.Add(new Category{Caption = "Latin Shines Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
+        <f>F26 &amp;"."&amp; SUBSTITUTE(VLOOKUP(H26,categories!$A$1:$D$39,4,FALSE),"Caption = """, "Caption = """&amp;G26 &amp;" ")</f>
+        <v>divOpen.Categories.Add(new Category{Caption = "Open Latin Shines Teams",Requirements = "100% choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now});</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="L27" t="str">
-        <f>"new List&lt;Competition&gt;{" &amp; D17 &amp; "}.ForEach(x=&gt;context.Competitions.Add(x));"</f>
-        <v>new List&lt;Competition&gt;{compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,}.ForEach(x=&gt;context.Competitions.Add(x));</v>
+      <c r="D27" s="3" t="str">
+        <f>"new List&lt;Competition&gt;{" &amp; D26 &amp; "}.ForEach(x=&gt;context.Competitions.Add(x));"</f>
+        <v>new List&lt;Competition&gt;{compOpenLatinShinesTeams,compOpenSalsaShinesTeams,compOpenLatinTeams,compOpenSalsaTeams,compAmateurSalsaTeams,compPro_AmLatinCouples,compOpenLatinShinesDuets,compOpenSalsaShinesDuets,compOpenLatinCouples,compProfessionalBachataCouples,compSemi_ProBachataCouples,compOpenSalsaCouples,compProfessionalSalsaCouples,compSemi_ProSalsaCouples,compOpenLatinSolo,compProfessionalSalsaSoloMale,compProfessionalSalsaSoloFemale,compSemi_ProSalsaSoloFemale,compAmateurSalsaSoloFemale,compYouthLatinDuetsMixed,compYouthSalsaDuetsMixed,compYouthLatinSoloTeams,compYouthSalsaSoloTeams,compYouthLatinSoloMixed,compYouthSalsaSoloMixed,}.ForEach(x=&gt;context.Competitions.Add(x));</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F41" t="b">
-        <f>competitions!L27="new List&lt;Competitor&gt;{" &amp; B39 &amp; "}.ForEach(x=&gt;context.Competitors.Add(x));"</f>
+        <f>competitions!D27="new List&lt;Competitor&gt;{" &amp; B39 &amp; "}.ForEach(x=&gt;context.Competitors.Add(x));"</f>
         <v>0</v>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E13"/>
     </sheetView>
   </sheetViews>
@@ -3635,11 +3635,11 @@
         <v>80</v>
       </c>
       <c r="D1" t="str">
-        <f>"var " &amp; A1 &amp; " = new Division(){Caption = """ &amp; B1 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" ref="D1:D13" si="0">"var " &amp; A1 &amp; " = new Division(){Caption = """ &amp; B1 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
         <v>var divAdultFree = new Division(){Caption = "Adult Freestyle",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E1" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A1 &amp; ");"</f>
+        <f t="shared" ref="E1:E13" si="1">"context.Divisions.AddOrUpdate(" &amp; A1 &amp; ");"</f>
         <v>context.Divisions.AddOrUpdate(divAdultFree);</v>
       </c>
       <c r="F1" t="s">
@@ -3661,18 +3661,18 @@
         <v>80</v>
       </c>
       <c r="D2" t="str">
-        <f>"var " &amp; A2 &amp; " = new Division(){Caption = """ &amp; B2 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divAmatuer = new Division(){Caption = "Amateur",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E2" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A2 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divAmatuer);</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G13" si="0">C2&amp;D2</f>
+        <f t="shared" ref="G2:G13" si="2">C2&amp;D2</f>
         <v>categories = new HashSet&lt;Category&gt;();var divAmatuer = new Division(){Caption = "Amateur",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3687,18 +3687,18 @@
         <v>80</v>
       </c>
       <c r="D3" t="str">
-        <f>"var " &amp; A3 &amp; " = new Division(){Caption = """ &amp; B3 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divAmatuerChor = new Division(){Caption = "Amatuer Choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E3" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A3 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divAmatuerChor);</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>categories = new HashSet&lt;Category&gt;();var divAmatuerChor = new Division(){Caption = "Amatuer Choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3713,18 +3713,18 @@
         <v>80</v>
       </c>
       <c r="D4" t="str">
-        <f>"var " &amp; A4 &amp; " = new Division(){Caption = """ &amp; B4 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divAmatuerImprov = new Division(){Caption = "Amateur Improvisation",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E4" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A4 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divAmatuerImprov);</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>categories = new HashSet&lt;Category&gt;();var divAmatuerImprov = new Division(){Caption = "Amateur Improvisation",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3739,18 +3739,18 @@
         <v>80</v>
       </c>
       <c r="D5" t="str">
-        <f>"var " &amp; A5 &amp; " = new Division(){Caption = """ &amp; B5 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divOpen = new Division(){Caption = "Open",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E5" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A5 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divOpen);</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>categories = new HashSet&lt;Category&gt;();var divOpen = new Division(){Caption = "Open",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3765,18 +3765,18 @@
         <v>80</v>
       </c>
       <c r="D6" t="str">
-        <f>"var " &amp; A6 &amp; " = new Division(){Caption = """ &amp; B6 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divProAm = new Division(){Caption = "Pro_Am",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E6" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A6 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divProAm);</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>categories = new HashSet&lt;Category&gt;();var divProAm = new Division(){Caption = "Pro_Am",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3791,18 +3791,18 @@
         <v>80</v>
       </c>
       <c r="D7" t="str">
-        <f>"var " &amp; A7 &amp; " = new Division(){Caption = """ &amp; B7 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divProf = new Division(){Caption = "Professional",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E7" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A7 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divProf);</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>categories = new HashSet&lt;Category&gt;();var divProf = new Division(){Caption = "Professional",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3817,18 +3817,18 @@
         <v>80</v>
       </c>
       <c r="D8" t="str">
-        <f>"var " &amp; A8 &amp; " = new Division(){Caption = """ &amp; B8 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divProfChor = new Division(){Caption = "Professional Choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E8" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A8 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divProfChor);</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>categories = new HashSet&lt;Category&gt;();var divProfChor = new Division(){Caption = "Professional Choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3843,18 +3843,18 @@
         <v>80</v>
       </c>
       <c r="D9" t="str">
-        <f>"var " &amp; A9 &amp; " = new Division(){Caption = """ &amp; B9 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divProfImProv = new Division(){Caption = "Professional Improvisation",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E9" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A9 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divProfImProv);</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>categories = new HashSet&lt;Category&gt;();var divProfImProv = new Division(){Caption = "Professional Improvisation",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3869,18 +3869,18 @@
         <v>80</v>
       </c>
       <c r="D10" t="str">
-        <f>"var " &amp; A10 &amp; " = new Division(){Caption = """ &amp; B10 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divSemiPro = new Division(){Caption = "Semi_Pro",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E10" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A10 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divSemiPro);</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>categories = new HashSet&lt;Category&gt;();var divSemiPro = new Division(){Caption = "Semi_Pro",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3895,18 +3895,18 @@
         <v>80</v>
       </c>
       <c r="D11" t="str">
-        <f>"var " &amp; A11 &amp; " = new Division(){Caption = """ &amp; B11 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divSemiProChor = new Division(){Caption = "Semi_Pro Choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E11" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A11 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divSemiProChor);</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>categories = new HashSet&lt;Category&gt;();var divSemiProChor = new Division(){Caption = "Semi_Pro Choreography",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3921,18 +3921,18 @@
         <v>80</v>
       </c>
       <c r="D12" t="str">
-        <f>"var " &amp; A12 &amp; " = new Division(){Caption = """ &amp; B12 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divSemiProImprov = new Division(){Caption = "Semi_Pro Improvisation",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E12" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A12 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divSemiProImprov);</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>categories = new HashSet&lt;Category&gt;();var divSemiProImprov = new Division(){Caption = "Semi_Pro Improvisation",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3947,18 +3947,18 @@
         <v>80</v>
       </c>
       <c r="D13" t="str">
-        <f>"var " &amp; A13 &amp; " = new Division(){Caption = """ &amp; B13 &amp; """,Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};"</f>
+        <f t="shared" si="0"/>
         <v>var divYouth = new Division(){Caption = "Youth",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
       <c r="E13" t="str">
-        <f>"context.Divisions.AddOrUpdate(" &amp; A13 &amp; ");"</f>
+        <f t="shared" si="1"/>
         <v>context.Divisions.AddOrUpdate(divYouth);</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>categories = new HashSet&lt;Category&gt;();var divYouth = new Division(){Caption = "Youth",Id = Guid.NewGuid(),CreatedOn = DateTimeOffset.Now,Categories = categories};</v>
       </c>
     </row>
@@ -3975,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F42" t="b">
-        <f>competitions!L27="new List&lt;Competitor&gt;{" &amp; B40 &amp; "}.ForEach(x=&gt;context.Competitors.Add(x));"</f>
+        <f>competitions!D27="new List&lt;Competitor&gt;{" &amp; B40 &amp; "}.ForEach(x=&gt;context.Competitors.Add(x));"</f>
         <v>0</v>
       </c>
     </row>
